--- a/我的创作/股票/交易系统/财务报表分析/财报分析结果汇总.xlsx
+++ b/我的创作/股票/交易系统/财务报表分析/财报分析结果汇总.xlsx
@@ -25,7 +25,8 @@
     <t>战略方向</t>
   </si>
   <si>
-    <t>战略发展趋势</t>
+    <t>战略发展趋势
+(分为扩张、维持、紧缩，其下又分小幅、中等、大幅三个等级)</t>
   </si>
   <si>
     <t>现金自给率情况
@@ -57,7 +58,7 @@
     <t>力生制药</t>
   </si>
   <si>
-    <t>维持相当程度的扩张</t>
+    <t>维持中等程度的扩张</t>
   </si>
   <si>
     <t>其经营活动仅能满足其筹资需求的20%</t>
@@ -69,7 +70,7 @@
     <t>健盛集团</t>
   </si>
   <si>
-    <t>开始相当程度的扩张</t>
+    <t>开始中等程度的扩张</t>
   </si>
   <si>
     <t>其经营活动仅能满足其筹资需求的50%</t>
@@ -1055,7 +1056,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1081,7 +1082,7 @@
     <row r="2" ht="68" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">

--- a/我的创作/股票/交易系统/财务报表分析/财报分析结果汇总.xlsx
+++ b/我的创作/股票/交易系统/财务报表分析/财报分析结果汇总.xlsx
@@ -43,7 +43,7 @@
     <t>中坚科技</t>
   </si>
   <si>
-    <t>扩张减缓</t>
+    <t>扩张减缓为小幅扩张</t>
   </si>
   <si>
     <t>其经营活动完全满足其筹资需求</t>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>

--- a/我的创作/股票/交易系统/财务报表分析/财报分析结果汇总.xlsx
+++ b/我的创作/股票/交易系统/财务报表分析/财报分析结果汇总.xlsx
@@ -43,7 +43,7 @@
     <t>中坚科技</t>
   </si>
   <si>
-    <t>扩张减缓为小幅扩张</t>
+    <t>扩张减缓为接近维持趋势</t>
   </si>
   <si>
     <t>其经营活动完全满足其筹资需求</t>
@@ -58,7 +58,7 @@
     <t>力生制药</t>
   </si>
   <si>
-    <t>维持中等程度的扩张</t>
+    <t>维持中等程度的扩张趋势</t>
   </si>
   <si>
     <t>其经营活动仅能满足其筹资需求的20%</t>
@@ -70,7 +70,7 @@
     <t>健盛集团</t>
   </si>
   <si>
-    <t>开始中等程度的扩张</t>
+    <t>开始中等程度的扩张趋势</t>
   </si>
   <si>
     <t>其经营活动仅能满足其筹资需求的50%</t>

--- a/我的创作/股票/交易系统/财务报表分析/财报分析结果汇总.xlsx
+++ b/我的创作/股票/交易系统/财务报表分析/财报分析结果汇总.xlsx
@@ -25,8 +25,8 @@
     <t>战略方向</t>
   </si>
   <si>
-    <t>战略发展趋势
-(分为扩张、维持、紧缩，其下又分小幅、中等、大幅三个等级)</t>
+    <t>公司目前采用的发展战略
+(大体分为扩张、维持、紧缩三大类，其下又分小幅、中等、大幅三个等级)</t>
   </si>
   <si>
     <t>现金自给率情况
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -107,43 +107,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +159,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -164,32 +181,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,14 +212,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -220,15 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,15 +228,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,181 +265,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,39 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,17 +483,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +527,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -570,152 +570,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,13 +726,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1056,7 +1050,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1076,27 +1070,27 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" ht="68" spans="1:5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1110,10 +1104,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1127,10 +1121,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
